--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="31">
   <si>
     <t>module/fonctionnalité</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>listeAnimalAcheter</t>
+  </si>
+  <si>
+    <t>insertion</t>
+  </si>
+  <si>
+    <t>insertAnimal</t>
   </si>
 </sst>
 </file>
@@ -696,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,10 +769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -950,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H14" si="0">F6-G6</f>
+        <f t="shared" ref="H6" si="0">F6-G6</f>
         <v>7</v>
       </c>
       <c r="I6" s="5">
@@ -1128,6 +1134,88 @@
       </c>
       <c r="E16" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
